--- a/data/trans_camb/P43E-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P43E-Estudios-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.82736373268487</v>
+        <v>-11.39992448989244</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.997948353480417</v>
+        <v>-9.877903424918303</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-4.289743664641741</v>
+        <v>-4.607943814181114</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.587530764194686</v>
+        <v>-3.099078493361092</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7566110564365693</v>
+        <v>-0.7690203272328148</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.672515345158744</v>
+        <v>-0.6850593297885349</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.3751115663648287</v>
+        <v>-0.3705588658679165</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2174328787342677</v>
+        <v>-0.2789224556368633</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>-9.201917672875156</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-1.969393021423338</v>
+        <v>-1.969393021423332</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.38283382947361</v>
+        <v>-12.67915375276491</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.633178926412994</v>
+        <v>-5.830714553032587</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-5.844956933224807</v>
+        <v>-6.139092239823312</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.309577530790947</v>
+        <v>1.333951808105422</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +702,7 @@
         <v>-0.3962607527365666</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.08480766605897246</v>
+        <v>-0.08480766605897222</v>
       </c>
     </row>
     <row r="14">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4957791895723715</v>
+        <v>-0.5053591043505161</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2236479142791964</v>
+        <v>-0.2335219801411346</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.2708978047111719</v>
+        <v>-0.2823872799739641</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.06087091082488085</v>
+        <v>0.06451349365388814</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-14.53557392286104</v>
+        <v>-14.48145675725508</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.541078687537982</v>
+        <v>-2.886888123098324</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2996855429142725</v>
+        <v>0.626762385324696</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.56945889729103</v>
+        <v>10.87528049916149</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3075208443425284</v>
+        <v>-0.3052369675576428</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.07050270005687131</v>
+        <v>-0.06200558869694926</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.007346492430591619</v>
+        <v>0.02151044615382185</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2788429887513937</v>
+        <v>0.2724665835855286</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>-6.736613882568848</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.536778652715265</v>
+        <v>1.536778652715268</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.527025118481065</v>
+        <v>-9.360668597146102</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.122909070408428</v>
+        <v>-1.056601873545465</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-4.244233389877268</v>
+        <v>-4.333951378589354</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.275481906925971</v>
+        <v>4.237425039717868</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>-0.2929658123824586</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.0668323306475546</v>
+        <v>0.06683233064755473</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3903104822209595</v>
+        <v>-0.382791141461367</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.04624313505611648</v>
+        <v>-0.04414926265479137</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1937510714374538</v>
+        <v>-0.1994335817299375</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1974549320803591</v>
+        <v>0.1973663637478489</v>
       </c>
     </row>
     <row r="28">
